--- a/a_table_automation/주간업무계획표_complete.xlsx
+++ b/a_table_automation/주간업무계획표_complete.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="맑은고딕"/>
+      <name val="맑은 고딕"/>
       <b val="1"/>
       <sz val="28"/>
     </font>
@@ -481,7 +481,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2022-09-01</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
     <row r="6">
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>(2022-08-14~2022-08-20)</t>
+          <t>(2022-09-01 ~ 2022-09-07)</t>
         </is>
       </c>
     </row>
@@ -529,12 +529,12 @@
     <row r="9">
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2022-09-01</t>
         </is>
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="D9" s="2" t="n"/>
@@ -572,12 +572,12 @@
     <row r="14">
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-09-02</t>
         </is>
       </c>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D14" s="2" t="n"/>
@@ -615,12 +615,12 @@
     <row r="19">
       <c r="B19" s="6" t="inlineStr">
         <is>
-          <t>2022-08-14</t>
+          <t>2022-09-03</t>
         </is>
       </c>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>Wendsday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D19" s="2" t="n"/>
@@ -658,12 +658,12 @@
     <row r="24">
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t>2022-08-15</t>
+          <t>2022-09-04</t>
         </is>
       </c>
       <c r="C24" s="6" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D24" s="2" t="n"/>
@@ -701,12 +701,12 @@
     <row r="29">
       <c r="B29" s="6" t="inlineStr">
         <is>
-          <t>2022-08-16</t>
+          <t>2022-09-05</t>
         </is>
       </c>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D29" s="2" t="n"/>
@@ -744,12 +744,12 @@
     <row r="34">
       <c r="B34" s="6" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-09-06</t>
         </is>
       </c>
       <c r="C34" s="6" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="D34" s="2" t="n"/>
@@ -787,12 +787,12 @@
     <row r="39">
       <c r="B39" s="6" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-09-07</t>
         </is>
       </c>
       <c r="C39" s="6" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="D39" s="2" t="n"/>
